--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43903.0</v>
+        <v>43907.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43904.0</v>
+        <v>43908.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43907.0</v>
+        <v>43911.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43913.0</v>
+        <v>43917.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -1747,7 +1747,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43907.0</v>
+        <v>43908.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
@@ -1904,7 +1904,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43908.0</v>
+        <v>43909.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
@@ -1920,7 +1920,7 @@
         <v>112</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43911.0</v>
+        <v>43912.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
@@ -1932,7 +1932,7 @@
         <v>137</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43917.0</v>
+        <v>43918.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>
@@ -2035,7 +2035,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="42">
-        <v>43897</v>
+        <v>43901</v>
       </c>
       <c r="C5" s="61">
         <v>0.35416666666666669</v>
@@ -2047,7 +2047,7 @@
         <v>116</v>
       </c>
       <c r="F5" s="43">
-        <v>43900</v>
+        <v>43902</v>
       </c>
       <c r="G5" s="45">
         <v>0.4375</v>
@@ -2059,7 +2059,7 @@
         <v>115</v>
       </c>
       <c r="J5" s="47">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="K5" s="56">
         <v>0.57986111111111116</v>
@@ -2075,7 +2075,7 @@
         <v>139</v>
       </c>
       <c r="R5" s="51">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="S5" s="77">
         <v>0.70833333333333337</v>

--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -392,13 +392,7 @@
     <t>44444XXX</t>
   </si>
   <si>
-    <t>11111XXX-CO</t>
-  </si>
-  <si>
     <t>11111YYY</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>true</t>
@@ -519,9 +513,6 @@
   </si>
   <si>
     <t>440000000</t>
-  </si>
-  <si>
-    <t>4400022222</t>
   </si>
   <si>
     <t>440001111</t>
@@ -1747,7 +1738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,53 +1883,53 @@
         <v>39</v>
       </c>
       <c r="B3" s="52" t="n">
-        <v>43908.0</v>
+        <v>43910.0</v>
       </c>
       <c r="C3" s="63" t="n">
         <v>0.4375</v>
       </c>
       <c r="D3" s="63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" s="58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" s="43" t="n">
-        <v>43909.0</v>
+        <v>43911.0</v>
       </c>
       <c r="G3" s="45" t="n">
         <v>0.6458333333333334</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="48"/>
       <c r="K3" s="55"/>
       <c r="L3" s="12"/>
       <c r="M3" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N3" s="49" t="n">
-        <v>43912.0</v>
+        <v>43914.0</v>
       </c>
       <c r="O3" s="54" t="n">
         <v>0.4583333333333333</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R3" s="50" t="n">
-        <v>43918.0</v>
+        <v>43920.0</v>
       </c>
       <c r="S3" s="74" t="n">
         <v>0.4166666666666667</v>
       </c>
       <c r="T3" s="37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U3" s="19">
         <v>1</v>
@@ -1961,55 +1952,55 @@
         <v>41</v>
       </c>
       <c r="B4" s="42">
-        <v>43901</v>
+        <v>43906</v>
       </c>
       <c r="C4" s="61">
         <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="44">
-        <v>43902</v>
+        <v>43907</v>
       </c>
       <c r="G4" s="45">
-        <v>0.6875</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J4" s="47">
-        <v>43904</v>
+        <v>43908</v>
       </c>
       <c r="K4" s="56">
         <v>0.69444444444444442</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N4" s="46">
-        <v>43906</v>
+        <v>43909</v>
       </c>
       <c r="O4" s="53">
         <v>0.70833333333333337</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R4" s="51">
-        <v>43910</v>
+        <v>43920</v>
       </c>
       <c r="S4" s="77">
         <v>0.5</v>
@@ -2041,22 +2032,22 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="D5" s="61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
-      <c r="F5" s="43">
-        <v>43902</v>
+      <c r="F5" s="44">
+        <v>43907</v>
       </c>
       <c r="G5" s="45">
         <v>0.4375</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J5" s="47">
         <v>43906</v>
@@ -2065,14 +2056,14 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="46"/>
       <c r="O5" s="53"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R5" s="51">
         <v>43908</v>
@@ -2141,11 +2132,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D3000">
-    <cfRule type="expression" dxfId="9" priority="3">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>NOT(AND(B3=INDEX($B$3:$B$3000,MATCH(D3,$D$3:$D$3000,0)),C3=INDEX($C$3:$C$3000,MATCH(D3,$D$3:$D$3000,0))))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>AND(NOT(ISBLANK($A3)),ISBLANK($D3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>NOT(AND(B3=INDEX($B$3:$B$3000,MATCH(D3,$D$3:$D$3000,0)),C3=INDEX($C$3:$C$3000,MATCH(D3,$D$3:$D$3000,0))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T3382">
@@ -2240,11 +2231,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2278,10 +2269,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>98</v>
@@ -2290,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2298,33 +2289,16 @@
         <v>96</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2326,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A3:A5</xm:sqref>
+          <xm:sqref>A3:A4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2527,7 +2501,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>81</v>
@@ -16310,7 +16284,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1">
         <v>123123</v>
@@ -16342,7 +16316,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1">
         <v>500500</v>
@@ -16357,7 +16331,7 @@
         <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>54</v>
@@ -16374,7 +16348,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1">
         <v>777222</v>
@@ -16406,7 +16380,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1">
         <v>194978</v>
@@ -33092,117 +33066,117 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E3" s="73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -1882,7 +1882,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="50" t="n">
-        <v>43918.0</v>
+        <v>43921.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1894,7 +1894,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43919.0</v>
+        <v>43922.0</v>
       </c>
       <c r="G3" s="43" t="n">
         <v>0.6458333333333334</v>
@@ -1910,7 +1910,7 @@
         <v>110</v>
       </c>
       <c r="N3" s="47" t="n">
-        <v>43922.0</v>
+        <v>43925.0</v>
       </c>
       <c r="O3" s="52" t="n">
         <v>0.4583333333333333</v>
@@ -1922,7 +1922,7 @@
         <v>133</v>
       </c>
       <c r="R3" s="48" t="n">
-        <v>43928.0</v>
+        <v>43931.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -1882,7 +1882,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="50" t="n">
-        <v>43921.0</v>
+        <v>43932.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1894,7 +1894,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43922.0</v>
+        <v>43933.0</v>
       </c>
       <c r="G3" s="43" t="n">
         <v>0.6458333333333334</v>
@@ -1910,7 +1910,7 @@
         <v>110</v>
       </c>
       <c r="N3" s="47" t="n">
-        <v>43925.0</v>
+        <v>43936.0</v>
       </c>
       <c r="O3" s="52" t="n">
         <v>0.4583333333333333</v>
@@ -1922,7 +1922,7 @@
         <v>133</v>
       </c>
       <c r="R3" s="48" t="n">
-        <v>43931.0</v>
+        <v>43942.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1950,11 +1950,11 @@
       <c r="A4" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="50">
-        <v>43914</v>
+      <c r="B4" s="50" t="n">
+        <v>43930.0</v>
       </c>
-      <c r="C4" s="59">
-        <v>0.47916666666666669</v>
+      <c r="C4" s="59" t="n">
+        <v>0.4791666666666667</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>102</v>
@@ -1962,11 +1962,11 @@
       <c r="E4" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="42">
-        <v>43915</v>
+      <c r="F4" s="42" t="n">
+        <v>43931.0</v>
       </c>
-      <c r="G4" s="43">
-        <v>0.39583333333333331</v>
+      <c r="G4" s="43" t="n">
+        <v>0.3958333333333333</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>105</v>
@@ -1974,11 +1974,11 @@
       <c r="I4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="45">
-        <v>43919</v>
+      <c r="J4" s="45" t="n">
+        <v>43934.0</v>
       </c>
-      <c r="K4" s="54">
-        <v>0.69444444444444442</v>
+      <c r="K4" s="54" t="n">
+        <v>0.6944444444444444</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>104</v>
@@ -1986,11 +1986,11 @@
       <c r="M4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="47">
-        <v>43921</v>
+      <c r="N4" s="47" t="n">
+        <v>43936.0</v>
       </c>
-      <c r="O4" s="51">
-        <v>0.70833333333333337</v>
+      <c r="O4" s="51" t="n">
+        <v>0.7083333333333334</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>109</v>
@@ -1998,11 +1998,11 @@
       <c r="Q4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="49">
-        <v>43927</v>
+      <c r="R4" s="49" t="n">
+        <v>43942.0</v>
       </c>
-      <c r="S4" s="75">
-        <v>0.5</v>
+      <c r="S4" s="75" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="T4" s="38" t="s">
         <v>96</v>

--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -1882,7 +1882,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="50" t="n">
-        <v>43932.0</v>
+        <v>43935.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1894,7 +1894,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43933.0</v>
+        <v>43936.0</v>
       </c>
       <c r="G3" s="43" t="n">
         <v>0.6458333333333334</v>
@@ -1910,7 +1910,7 @@
         <v>110</v>
       </c>
       <c r="N3" s="47" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O3" s="52" t="n">
         <v>0.4583333333333333</v>
@@ -1922,7 +1922,7 @@
         <v>133</v>
       </c>
       <c r="R3" s="48" t="n">
-        <v>43942.0</v>
+        <v>43945.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1951,7 +1951,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="50" t="n">
-        <v>43930.0</v>
+        <v>43933.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1963,7 +1963,7 @@
         <v>112</v>
       </c>
       <c r="F4" s="42" t="n">
-        <v>43931.0</v>
+        <v>43934.0</v>
       </c>
       <c r="G4" s="43" t="n">
         <v>0.3958333333333333</v>
@@ -1975,7 +1975,7 @@
         <v>113</v>
       </c>
       <c r="J4" s="45" t="n">
-        <v>43934.0</v>
+        <v>43937.0</v>
       </c>
       <c r="K4" s="54" t="n">
         <v>0.6944444444444444</v>
@@ -1987,7 +1987,7 @@
         <v>110</v>
       </c>
       <c r="N4" s="47" t="n">
-        <v>43936.0</v>
+        <v>43939.0</v>
       </c>
       <c r="O4" s="51" t="n">
         <v>0.7083333333333334</v>
@@ -1999,7 +1999,7 @@
         <v>135</v>
       </c>
       <c r="R4" s="49" t="n">
-        <v>43942.0</v>
+        <v>43945.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -1882,7 +1882,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="50" t="n">
-        <v>43935.0</v>
+        <v>43941.0</v>
       </c>
       <c r="C3" s="61" t="n">
         <v>0.4375</v>
@@ -1894,7 +1894,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="42" t="n">
-        <v>43936.0</v>
+        <v>43942.0</v>
       </c>
       <c r="G3" s="43" t="n">
         <v>0.6458333333333334</v>
@@ -1910,7 +1910,7 @@
         <v>110</v>
       </c>
       <c r="N3" s="47" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O3" s="52" t="n">
         <v>0.4583333333333333</v>
@@ -1922,7 +1922,7 @@
         <v>133</v>
       </c>
       <c r="R3" s="48" t="n">
-        <v>43945.0</v>
+        <v>43951.0</v>
       </c>
       <c r="S3" s="72" t="n">
         <v>0.4166666666666667</v>
@@ -1951,7 +1951,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="50" t="n">
-        <v>43933.0</v>
+        <v>43939.0</v>
       </c>
       <c r="C4" s="59" t="n">
         <v>0.4791666666666667</v>
@@ -1963,7 +1963,7 @@
         <v>112</v>
       </c>
       <c r="F4" s="42" t="n">
-        <v>43934.0</v>
+        <v>43940.0</v>
       </c>
       <c r="G4" s="43" t="n">
         <v>0.3958333333333333</v>
@@ -1975,7 +1975,7 @@
         <v>113</v>
       </c>
       <c r="J4" s="45" t="n">
-        <v>43937.0</v>
+        <v>43943.0</v>
       </c>
       <c r="K4" s="54" t="n">
         <v>0.6944444444444444</v>
@@ -1987,7 +1987,7 @@
         <v>110</v>
       </c>
       <c r="N4" s="47" t="n">
-        <v>43939.0</v>
+        <v>43945.0</v>
       </c>
       <c r="O4" s="51" t="n">
         <v>0.7083333333333334</v>
@@ -1999,7 +1999,7 @@
         <v>135</v>
       </c>
       <c r="R4" s="49" t="n">
-        <v>43945.0</v>
+        <v>43951.0</v>
       </c>
       <c r="S4" s="75" t="n">
         <v>0.4166666666666667</v>

--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215D049-5446-400A-8571-5FA8F1F9D1AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MANIFESTS" sheetId="4" r:id="rId1"/>
@@ -21,7 +22,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -524,7 +525,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -1731,34 +1732,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="R3" activeCellId="4" sqref="B3:B5 F3:F5 J4:J5 N3:N4 R3:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="5.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="7.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="5.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="7.140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="6.85546875" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1881,10 +1882,10 @@
       <c r="A3" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="50" t="n">
-        <v>43941.0</v>
+      <c r="B3" s="50">
+        <v>44002</v>
       </c>
-      <c r="C3" s="61" t="n">
+      <c r="C3" s="61">
         <v>0.4375</v>
       </c>
       <c r="D3" s="61" t="s">
@@ -1893,11 +1894,11 @@
       <c r="E3" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="42" t="n">
-        <v>43942.0</v>
+      <c r="F3" s="42">
+        <v>44003</v>
       </c>
-      <c r="G3" s="43" t="n">
-        <v>0.6458333333333334</v>
+      <c r="G3" s="43">
+        <v>0.64583333333333337</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>138</v>
@@ -1909,11 +1910,11 @@
       <c r="M3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="47" t="n">
-        <v>43945.0</v>
+      <c r="N3" s="47">
+        <v>44006</v>
       </c>
-      <c r="O3" s="52" t="n">
-        <v>0.4583333333333333</v>
+      <c r="O3" s="52">
+        <v>0.45833333333333331</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>108</v>
@@ -1921,11 +1922,11 @@
       <c r="Q3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="R3" s="48" t="n">
-        <v>43951.0</v>
+      <c r="R3" s="48">
+        <v>44012</v>
       </c>
-      <c r="S3" s="72" t="n">
-        <v>0.4166666666666667</v>
+      <c r="S3" s="72">
+        <v>0.41666666666666669</v>
       </c>
       <c r="T3" s="37" t="s">
         <v>141</v>
@@ -1950,11 +1951,11 @@
       <c r="A4" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="50" t="n">
-        <v>43939.0</v>
+      <c r="B4" s="50">
+        <v>44000</v>
       </c>
-      <c r="C4" s="59" t="n">
-        <v>0.4791666666666667</v>
+      <c r="C4" s="59">
+        <v>0.47916666666666669</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>102</v>
@@ -1962,11 +1963,11 @@
       <c r="E4" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="42" t="n">
-        <v>43940.0</v>
+      <c r="F4" s="42">
+        <v>44001</v>
       </c>
-      <c r="G4" s="43" t="n">
-        <v>0.3958333333333333</v>
+      <c r="G4" s="43">
+        <v>0.39583333333333331</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>105</v>
@@ -1974,11 +1975,11 @@
       <c r="I4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="45" t="n">
-        <v>43943.0</v>
+      <c r="J4" s="45">
+        <v>44004</v>
       </c>
-      <c r="K4" s="54" t="n">
-        <v>0.6944444444444444</v>
+      <c r="K4" s="54">
+        <v>0.69444444444444442</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>104</v>
@@ -1986,11 +1987,11 @@
       <c r="M4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="47" t="n">
-        <v>43945.0</v>
+      <c r="N4" s="47">
+        <v>44006</v>
       </c>
-      <c r="O4" s="51" t="n">
-        <v>0.7083333333333334</v>
+      <c r="O4" s="51">
+        <v>0.70833333333333337</v>
       </c>
       <c r="P4" s="15" t="s">
         <v>109</v>
@@ -1998,11 +1999,11 @@
       <c r="Q4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="R4" s="49" t="n">
-        <v>43951.0</v>
+      <c r="R4" s="49">
+        <v>44012</v>
       </c>
-      <c r="S4" s="75" t="n">
-        <v>0.4166666666666667</v>
+      <c r="S4" s="75">
+        <v>0.41666666666666669</v>
       </c>
       <c r="T4" s="38" t="s">
         <v>96</v>
@@ -2025,7 +2026,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="50">
-        <v>43917</v>
+        <v>43978</v>
       </c>
       <c r="C5" s="59">
         <v>0.35416666666666669</v>
@@ -2037,7 +2038,7 @@
         <v>114</v>
       </c>
       <c r="F5" s="42">
-        <v>43918</v>
+        <v>43979</v>
       </c>
       <c r="G5" s="43">
         <v>0.4375</v>
@@ -2049,7 +2050,7 @@
         <v>113</v>
       </c>
       <c r="J5" s="45">
-        <v>43919</v>
+        <v>43980</v>
       </c>
       <c r="K5" s="54">
         <v>0.57986111111111116</v>
@@ -2065,7 +2066,7 @@
         <v>137</v>
       </c>
       <c r="R5" s="77">
-        <v>43927</v>
+        <v>43988</v>
       </c>
       <c r="S5" s="78">
         <v>0.70833333333333337</v>
@@ -2228,9 +2229,9 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2239,11 +2240,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="5" max="7" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="9.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,7 +2302,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D2"/>
+  <autoFilter ref="A2:D2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
@@ -2312,7 +2313,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <extLst>
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{2422F177-28FB-44CF-A4DE-B7E2DAB6F9D1}">
@@ -2334,7 +2335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:I1247"/>
   <sheetViews>
@@ -2345,12 +2346,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="6" max="8" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="13.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -16197,7 +16198,7 @@
       <c r="I1247" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="9">
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="G1:G2"/>
@@ -16214,7 +16215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Лист4"/>
   <dimension ref="A1:J1387"/>
   <sheetViews>
@@ -16225,13 +16226,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -32999,7 +33000,7 @@
       <c r="J1387" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="10">
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
@@ -33017,9 +33018,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист5"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
@@ -33027,8 +33028,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="1" max="6" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33243,11 +33244,11 @@
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
-    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
+++ b/src/test/resources/excelTests/manifestUploadTestAlreadyExistingManifestInDb.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215D049-5446-400A-8571-5FA8F1F9D1AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49C6EF2-FF90-42D7-87EC-7E4EEFEA6BE3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -46,7 +46,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -1329,8 +1329,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1734,11 +1734,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" activeCellId="4" sqref="B3:B5 F3:F5 J4:J5 N3:N4 R3:R5"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1762,7 @@
     <col min="25" max="25" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>14</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1878,12 +1878,12 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="50">
-        <v>44002</v>
+        <v>44122</v>
       </c>
       <c r="C3" s="61">
         <v>0.4375</v>
@@ -1895,7 +1895,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="42">
-        <v>44003</v>
+        <v>44123</v>
       </c>
       <c r="G3" s="43">
         <v>0.64583333333333337</v>
@@ -1911,7 +1911,7 @@
         <v>110</v>
       </c>
       <c r="N3" s="47">
-        <v>44006</v>
+        <v>44126</v>
       </c>
       <c r="O3" s="52">
         <v>0.45833333333333331</v>
@@ -1923,7 +1923,7 @@
         <v>133</v>
       </c>
       <c r="R3" s="48">
-        <v>44012</v>
+        <v>44132</v>
       </c>
       <c r="S3" s="72">
         <v>0.41666666666666669</v>
@@ -1947,12 +1947,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="50">
-        <v>44000</v>
+        <v>44120</v>
       </c>
       <c r="C4" s="59">
         <v>0.47916666666666669</v>
@@ -1964,7 +1964,7 @@
         <v>112</v>
       </c>
       <c r="F4" s="42">
-        <v>44001</v>
+        <v>44121</v>
       </c>
       <c r="G4" s="43">
         <v>0.39583333333333331</v>
@@ -1976,7 +1976,7 @@
         <v>113</v>
       </c>
       <c r="J4" s="45">
-        <v>44004</v>
+        <v>44124</v>
       </c>
       <c r="K4" s="54">
         <v>0.69444444444444442</v>
@@ -1988,7 +1988,7 @@
         <v>110</v>
       </c>
       <c r="N4" s="47">
-        <v>44006</v>
+        <v>44126</v>
       </c>
       <c r="O4" s="51">
         <v>0.70833333333333337</v>
@@ -2000,7 +2000,7 @@
         <v>135</v>
       </c>
       <c r="R4" s="49">
-        <v>44012</v>
+        <v>44132</v>
       </c>
       <c r="S4" s="75">
         <v>0.41666666666666669</v>
@@ -2021,12 +2021,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
         <v>89</v>
       </c>
       <c r="B5" s="50">
-        <v>43978</v>
+        <v>44098</v>
       </c>
       <c r="C5" s="59">
         <v>0.35416666666666669</v>
@@ -2038,7 +2038,7 @@
         <v>114</v>
       </c>
       <c r="F5" s="42">
-        <v>43979</v>
+        <v>44099</v>
       </c>
       <c r="G5" s="43">
         <v>0.4375</v>
@@ -2050,7 +2050,7 @@
         <v>113</v>
       </c>
       <c r="J5" s="45">
-        <v>43980</v>
+        <v>44100</v>
       </c>
       <c r="K5" s="54">
         <v>0.57986111111111116</v>
@@ -2066,7 +2066,7 @@
         <v>137</v>
       </c>
       <c r="R5" s="77">
-        <v>43988</v>
+        <v>44108</v>
       </c>
       <c r="S5" s="78">
         <v>0.70833333333333337</v>
@@ -2085,6 +2085,11 @@
       </c>
       <c r="X5" s="21">
         <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
